--- a/data_excel/427.xlsx
+++ b/data_excel/427.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虛詞</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/data_excel/427.xlsx
+++ b/data_excel/427.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>用</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +174,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,15 +239,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -542,7 +569,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -737,8 +764,8 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>

--- a/data_excel/427.xlsx
+++ b/data_excel/427.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>用</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,17 +573,17 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
